--- a/adc/figs/components.xlsx
+++ b/adc/figs/components.xlsx
@@ -22,6 +22,17 @@
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <webPublishing allowPng="1" css="0" characterSet="UTF-8"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="2">
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Jumper Wires</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -133,7 +144,7 @@
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
@@ -146,38 +157,29 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -191,7 +193,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A1" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -203,52 +205,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Component</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Resistor</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>220 Ohm</t>
         </is>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>Arduino</t>
-        </is>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="C3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>Seven Segment Display</t>
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>Breadboard</t>
         </is>
       </c>
       <c r="B4" s="7"/>
@@ -257,46 +257,74 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Decoder</t>
-        </is>
-      </c>
-      <c r="B5" s="7">
-        <v>7447</v>
-      </c>
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>STM32F103C8T6</t>
+        </is>
+      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.5">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>Flip Flop</t>
-        </is>
-      </c>
-      <c r="B6" s="10">
-        <v>7474</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2</v>
+    <row r="6" spans="1:3" ht="23.25">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>LCD</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>16 x 2 HD44780</t>
+        </is>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>Jumper Wires</t>
-        </is>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>M-F</t>
+        </is>
+      </c>
+      <c r="C7" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.5"/>
-    <row r="9" spans="1:3" ht="13.5"/>
-    <row r="10" spans="1:3" ht="13.5"/>
-    <row r="11" spans="1:3" ht="13.5"/>
+    <row r="8" spans="1:3" ht="13.5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>F-F</t>
+        </is>
+      </c>
+      <c r="C8" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13.5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>M-M</t>
+        </is>
+      </c>
+      <c r="C9" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13.5">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+    </row>
+    <row r="11" spans="1:3" ht="13.5">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+    </row>
     <row r="12" spans="1:3" ht="13.5"/>
     <row r="13" spans="1:3" ht="13.5"/>
     <row r="14" spans="1:3" ht="13.5"/>
@@ -305,9 +333,13 @@
     <row r="17" spans="1:3" ht="13.5"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <mergeCells>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <printOptions/>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" fitToHeight="0" fitToWidth="0" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -334,7 +366,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <printOptions/>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" fitToHeight="0" fitToWidth="0" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -361,7 +393,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <printOptions/>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" fitToHeight="0" fitToWidth="0" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
